--- a/outputs/Lincoln1.xlsx
+++ b/outputs/Lincoln1.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations 2. Attitude Towards Risk 3. Computer Self-Efficacy
-Why: The page does not provide any clear indication or straightforward information about filing an issue. Abi, being risk-averse and having low computer self-efficacy, might not feel confident about where to look for the information or if it is even available on this page. Additionally, the page layout does not prominently highlight any relevant sections or instructions directly related to filing an issue, which could demotivate Abi from considering this as a step toward achieving the overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations 2. Computer Self-Efficacy 4. Attitude Towards Risk
-Why: The page does not provide clear or explicit guidance indicating that clicking the "Issues" button on the side will help Abi find information about filing an issue. Abi might not be confident enough to click on the "Issues" button without knowing what to expect, due to their low computer self-efficacy and risk-averse nature. The sidebar menu does not provide sufficient information or context to reassure Abi that this action is the correct step toward finding the desired information.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" button on the side panel is clearly labeled, making it straightforward for Abi to understand that clicking it will likely lead to information about filing an issue. This aligns with her comprehensive information processing style, as she can see the button and understand its purpose without needing to tinker. Additionally, the clear labeling helps mitigate her low computer self-efficacy, as it provides a clear and direct action to take.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style 4. Computer Self-Efficacy
-Why: After clicking the "Issue" button, Abi lands on a page listing various issues, but this page does not provide clear, explicit instructions or information on how to file an issue. Abi prefers comprehensive information and step-by-step guidance, which is not readily available on this page. Instead, the page seems to assume a level of familiarity with the process of filing issues that Abi might not have. Additionally, the presence of numerous listed issues might overwhelm Abi and reduce her confidence in knowing that she is progressing towards her goal of filing an issue.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide clear instructions or information on how to file a new issue. Abi's comprehensive information processing style means she needs clear, step-by-step instructions, which are not present here. Additionally, her low computer self-efficacy might make her uncertain about what to do next, as there is no obvious guidance on filing a new issue. The "New issue" button is present, but without explicit instructions, Abi might not feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: The green "New Issue" button is prominently displayed and clearly labeled, making it obvious that it is the next step to take for filing an issue. The button stands out on the page, reducing ambiguity and helping Abi feel confident that clicking it will help achieve the desired goal. Additionally, the action is straightforward and aligns with Abi's motivation to accomplish the task, as it provides a clear and direct option for proceeding.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The green "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to understand that clicking it will allow her to file a new issue. This aligns with her comprehensive information processing style, as the button is straightforward and does not require her to tinker or guess its function. Additionally, the clear labeling helps mitigate her low computer self-efficacy, as it provides a direct and obvious action to take.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: Upon clicking the "New Issue" button, Abi lands on a page that is clearly labeled "New Issue" and contains a form specifically for creating a new issue. The layout of the form is straightforward and includes fields for the necessary information like title, type, description, assignee, milestone, and labels. This direct approach aligns with Abi's motivation to file an issue and provides a structured, step-by-step process that suits their comprehensive information processing style. The presence of the "Create issue" button at the bottom further confirms that Abi is on the right path to achieving her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled with fields for the title, type, description, assignee, milestone, labels, and due date. This structured format aligns with Abi's comprehensive information processing style, as it provides a clear, step-by-step process for filing an issue. Additionally, the presence of a "Create issue" button at the bottom reinforces that she is on the right track. The clear instructions and layout help mitigate her low computer self-efficacy, making her feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln1.xlsx
+++ b/outputs/Lincoln1.xlsx
@@ -424,104 +424,102 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Looking at this GitLab repository page for FLOSSCoach, there is a project menu on the left side that includes an "Issues" section. However, there's no immediately visible information about how to file an issue in the README.md content shown. The documentation focuses more on general project information, technologies used, and how to contribute.
-Considering ABI's characteristics:
-- She likes to gather comprehensive information before taking action
-- She prefers clear, step-by-step instructions 
-- She tends to be risk-averse and wants to be confident she's doing things correctly
-Without clear, explicit guidance about the issue filing process visible on this page, ABI would likely feel uncertain about taking this step. She would want to know:
-- Where exactly to click to file an issue
-- What information should be included in an issue
-- What the proper format or template is for issues
-- Whether she needs special permissions first
-Since this information isn't readily apparent, ABI would probably hesitate and look for more detailed documentation before proceeding. So no, she likely would not have thought of this as an obvious or comfortable step toward the overall use case without clearer guidance.
-The interface could better support ABI's needs by providing explicit issue filing instructions or linking to documentation about the process directly in the README or a prominent location.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+3. Computer Self-Efficacy
+Why: ABI would consider this a necessary first step because:
+- Her comprehensive information processing style means she wants to gather complete information before taking action
+- She is motivated to complete tasks correctly and would want to understand the proper way to file an issue
+- Given her low computer self-efficacy, she would want to make sure she understands the process before attempting it to avoid making mistakes
+- The page shows a clear README.md file with project information which aligns with her preference for gathering comprehensive information before acting
+The presence of documentation and project information on the page would make ABI feel this is a logical first step toward filing an issue properly, rather than jumping directly to action without understanding the process.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely know what to do at this step because:
-1. The "Issues" menu item is clearly visible in the left sidebar navigation panel of the GitLab interface.
-2. The button is labeled with a standard icon (exclamation mark in a circle) and the word "Issues" - this follows common conventions that Abi would likely recognize from other similar platforms.
-3. The location of the button follows standard GitLab/GitHub layout patterns, being prominently placed in the left navigation menu.
-4. The button appears to be easily clickable and stands out from other menu items.
-However, Abi's comprehensive processing style means she might:
-- Take time to scan the entire left menu to ensure "Issues" is the correct choice
-- Want to confirm this is the right path before clicking
-- Look for additional documentation or help about issues first
-The page provides enough context and clear navigation structure for Abi to confidently take this action, even if she approaches it methodically and carefully. The interface follows familiar patterns which would help reduce uncertainty for someone like Abi who prefers to be thorough and sure before taking actions.</t>
+          <t>Answer: YES
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Attitude Toward Risk
+Why: ABI would likely take this action because:
+- The "Issues" button on the left sidebar is clearly visible with a recognizable icon
+- It's a standard GitHub interface element that appears consistently across repositories
+- The button is labeled plainly as "Issues" without technical jargon, making it less intimidating for someone with low computer self-efficacy
+- The presence of the number (counter) next to "Issues" indicates it's an active section, which aligns with ABI's need for clear indicators
+- Since ABI is looking for information about filing an issue, and there's a clearly labeled "Issues" button, this matches her comprehensive information processing style
+- It's a low-risk action as it's just navigating to another page to gather information, which aligns with her risk-averse nature
+The interface provides enough clarity and context for ABI to feel confident clicking this standard navigation element.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes, Abi will know they're making progress for several reasons:
-1. Visual Confirmation:
-- After clicking the "Issues" button, they'll see a complete list of existing issues
-- The page clearly shows the "Issues" section is active/selected
-- They can see a "New Issue" button in the top right, indicating they're in the right place to file an issue
-2. Information Available:
-- They can see examples of how other issues are formatted
-- They can see labels being used (like "BUG")
-- They can see the structure of issue titles and descriptions
-- The page shows issue numbers, creation dates, and status (open/closed)
-3. Clear Next Steps:
-- The "New Issue" button is prominently displayed
-- There's an "Email a new issue to this project" link at the bottom
-- The interface shows sorting and filtering options to help organize issues
-4. Context Clues:
-- The breadcrumb navigation at the top confirms they're in the issues section
-- The issue count (19 open, 133 closed) provides context
-- The search bar specifically for issues is available
-All these elements will reassure Abi that they're in the correct place to file a new issue and can proceed with confidence to the next step of actually creating the issue.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Information Overload)
+Why: ABI would struggle to confirm she's making progress because:
+- The page shows a list of existing issues but doesn't provide clear guidance or information about how to file a new issue
+- While there is a "New Issue" button, there's no immediate documentation or instructions about the proper way to file an issue
+- The page contains many technical terms and labels (like "BUG", "devops") which may be intimidating given her low computer self-efficacy
+- The page is overwhelming with multiple issues, labels, and options (Open, Closed, All tabs, filters) which could confuse ABI who prefers comprehensive understanding
+- Her risk-averse nature would make her hesitant to proceed without clear instructions about the issue filing process
+- The page doesn't provide the comprehensive information she was looking for about how to properly file an issue, which doesn't satisfy her information processing style
+- The amount of information and options on the page could overwhelm ABI, making it difficult for her to determine if she's on the right track
+ABI needs clear, step-by-step guidance about issue filing, which this page doesn't provide.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely be able to take this action successfully because:
-1. The "New Issue" button is very prominent and clearly visible in the top-right corner of the screen
-2. It's colored in blue, making it stand out from other elements
-3. The button text "New Issue" is clear and unambiguous about its purpose
-4. The button is positioned where users typically expect action buttons to be (top right)
-5. The current context (being on an Issues page) makes it logical that creating a new issue would be done via this button
-Given ABI's characteristics:
-- As someone who likes to be thorough and certain before taking actions
-- Prefers clear, step-by-step processes
-- May have lower computer self-efficacy
-The interface provides enough confidence cues:
-- The button is clearly labeled
-- It's in a standard location
-- The surrounding context (being on the Issues tab) confirms this is the right place to create an issue
-- There's only one obvious way to create a new issue, reducing confusion
-Therefore, ABI should feel comfortable clicking this button as it presents a clear path forward for creating a new issue.</t>
+          <t>Answer: NO
+Facets:
+1. Attitude Toward Risk
+2. Computer Self-Efficacy
+3. Information Processing Style
+4. None of the Above (Lack of guidance)
+Why: ABI would hesitate to click the "New Issue" button because:
+- There's no clear documentation or instructions about what happens after clicking the button
+- Given her comprehensive information processing style, she hasn't yet found the information she was looking for about how to properly file an issue
+- Her risk-averse nature would make her hesitant to click without knowing what information she'll need to provide on the next screen
+- With her low computer self-efficacy, she would want to understand the process before starting it
+- The page shows existing issues with technical labels (BUG, devops) which might make her doubt her ability to create a proper issue
+- There's no indication or guidance about what constitutes a good issue or what information should be included
+- The "Email a new issue to this project" link at the bottom might create confusion about whether to use the button or email option
+ABI would prefer to have clear instructions about the issue creation process before starting it, rather than clicking a button without knowing what comes next.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at the image, after clicking the "New Issue" button, Abi would know they did the right thing because:
-1. The page clearly shows a "New Issue" form with all the necessary fields to create an issue:
-   - Title field (marked as required)
-   - Type dropdown (set to "Issue")
-   - Description text box with formatting options
-   - Create issue button at the bottom
-2. Visual feedback includes:
-   - The breadcrumb trail at the top showing they're in the issue creation process
-   - A clean, focused form dedicated to creating a new issue
-   - Familiar text editor interface for adding description
-   - Clear action buttons ("Create issue" and "Cancel")
-3. The interface provides all the information needed to file an issue:
-   - Required fields are marked
-   - Helper tools for formatting the description
-   - Option to make the issue confidential if needed
-   - Preview functionality for the description
-Abi would know they're making progress because the form provides a clear path to completing their goal of filing an issue, with all necessary components visible and accessible. The interface matches what someone would expect when creating a new issue in a project management system.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Lack of guidance/instructions)
+Why: ABI would not feel confident she's making progress because:
+- There's no guidance or template showing what information should be included in an issue
+- The text editor has multiple formatting buttons/icons without explanations, which could be overwhelming for someone with low computer self-efficacy
+- Her process-oriented learning style isn't supported - there are no step-by-step instructions or examples of what makes a good issue
+- The form fields (Title, Type, Description) don't provide enough context about what should be entered
+- Her comprehensive information processing style needs more detailed information about:
+  * What constitutes a good issue title
+  * What information should be included in the description
+  * When to use different issue types
+- The "Preview" tab and rich text editing options might confuse her without clear instructions about their purpose
+- The technical term "Reporter access" in the confidentiality checkbox might be unclear to her
+ABI needs more structured guidance and examples to feel confident she's creating an issue correctly, which this page doesn't provide.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln1.xlsx
+++ b/outputs/Lincoln1.xlsx
@@ -492,10 +492,10 @@
 - Given her comprehensive information processing style, she hasn't yet found the information she was looking for about how to properly file an issue
 - Her risk-averse nature would make her hesitant to click without knowing what information she'll need to provide on the next screen
 - With her low computer self-efficacy, she would want to understand the process before starting it
-- The page shows existing issues with technical labels (BUG, devops) which might make her doubt her ability to create a proper issue
+- The page shows existing issues with various technical labels (BUG, devops) which might make her feel uncertain about her ability to create a proper issue
 - There's no indication or guidance about what constitutes a good issue or what information should be included
-- The "Email a new issue to this project" link at the bottom might create confusion about whether to use the button or email option
-ABI would prefer to have clear instructions about the issue creation process before starting it, rather than clicking a button without knowing what comes next.</t>
+- The "Email a new issue to this project" link at the bottom might create confusion about whether to use the button or email, adding to her uncertainty
+ABI would prefer to first understand the complete process and requirements for filing an issue before clicking the button to start creating one.</t>
         </is>
       </c>
     </row>
@@ -509,17 +509,15 @@
 3. Learning Style
 4. None of the Above (Lack of guidance/instructions)
 Why: ABI would not feel confident she's making progress because:
-- There's no guidance or template showing what information should be included in an issue
+- There's no guidance or instructions about what constitutes a good issue or what information should be included in each field
 - The text editor has multiple formatting buttons/icons without explanations, which could be overwhelming for someone with low computer self-efficacy
-- Her process-oriented learning style isn't supported - there are no step-by-step instructions or examples of what makes a good issue
-- The form fields (Title, Type, Description) don't provide enough context about what should be entered
-- Her comprehensive information processing style needs more detailed information about:
-  * What constitutes a good issue title
-  * What information should be included in the description
-  * When to use different issue types
-- The "Preview" tab and rich text editing options might confuse her without clear instructions about their purpose
-- The technical term "Reporter access" in the confidentiality checkbox might be unclear to her
-ABI needs more structured guidance and examples to feel confident she's creating an issue correctly, which this page doesn't provide.</t>
+- Her process-oriented learning style isn't supported as there are no step-by-step instructions or examples of how to properly fill out an issue
+- The description field's placeholder text "Write a description or drag your files here" is too vague for someone who prefers comprehensive information
+- The Type dropdown and question mark icon don't provide immediate information about what each type means
+- Her comprehensive information processing style isn't satisfied as there's no clear indication of what makes a good title or description
+- The formatting toolbar contains technical symbols/icons without labels or explanations, which could be intimidating
+- There's no template or example to follow, which would help someone who prefers process-oriented learning
+ABI needs more structured guidance and clear instructions about how to properly complete each field to feel confident she's creating an issue correctly.</t>
         </is>
       </c>
     </row>
